--- a/Document Library/tool_board_PCB_connections.xlsx
+++ b/Document Library/tool_board_PCB_connections.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/Document Library/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_453B9BAC87D68BBC66B3FF297ABA556296DAF3B3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDB60785-CA1A-4C5A-AD16-F0D1B735E8D1}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="408" windowWidth="18852" windowHeight="6900"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,6 +277,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -318,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +360,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,6 +412,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,38 +604,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>51</v>
       </c>
@@ -600,12 +641,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>42</v>
       </c>
@@ -613,12 +654,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I12" t="s">
         <v>36</v>
       </c>
@@ -641,7 +682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -664,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -687,7 +728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -707,7 +748,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -730,7 +771,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -750,7 +791,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -773,7 +814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -793,7 +834,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -823,7 +864,7 @@
       </c>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -849,7 +890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -869,7 +910,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -889,7 +930,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -909,7 +950,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -932,7 +973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -952,7 +993,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -975,7 +1016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -995,7 +1036,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1018,7 +1059,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1038,7 +1079,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -1061,7 +1102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -1081,12 +1122,12 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I41" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>53</v>
       </c>
@@ -1097,7 +1138,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>54</v>
       </c>
@@ -1105,7 +1146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>55</v>
       </c>
@@ -1116,7 +1157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>56</v>
       </c>
@@ -1129,8 +1170,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1"/>
-    <hyperlink ref="K8" r:id="rId2"/>
+    <hyperlink ref="K10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1138,24 +1179,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
